--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_HAMPSHIRE_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_HAMPSHIRE_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -431,7 +431,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C5">
@@ -545,7 +545,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -698,12 +698,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C24">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C26">
@@ -817,7 +817,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C32">
@@ -856,7 +856,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C35">
@@ -869,7 +869,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C36">
@@ -957,7 +957,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C42">
@@ -983,7 +983,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C44">
@@ -1255,7 +1255,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C63">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C75">
@@ -1447,7 +1447,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C77">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C86">
@@ -1592,7 +1592,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C87">
@@ -1709,76 +1709,6 @@
       </c>
       <c r="D95">
         <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_HAMPSHIRE_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/NEW_HAMPSHIRE_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1121,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1183,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -1196,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Los Ramones</t>
@@ -1209,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1222,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1253,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1266,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -1279,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -1292,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -1305,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1362,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1375,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1388,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -1401,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1432,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -1445,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1458,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1471,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1502,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1515,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1528,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1559,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1590,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -1603,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1634,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -1647,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1660,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -1673,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -1686,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
